--- a/Deliverables/sprint-02/planning-documents.xlsx
+++ b/Deliverables/sprint-02/planning-documents.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="238">
   <si>
     <t>Project Name</t>
   </si>
@@ -68,7 +68,13 @@
     <t>Team T-shirt (white)</t>
   </si>
   <si>
+    <t>https://www.shirtinator.de/s/qaSIJh2NSBO7V5kllYTrWQ</t>
+  </si>
+  <si>
     <t>Team T-shirt (black)</t>
+  </si>
+  <si>
+    <t>https://www.shirtinator.de/s/Bhl3o0Z8R2635N-1SYy3VA</t>
   </si>
   <si>
     <t>Additional materials</t>
@@ -741,7 +747,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -757,6 +763,12 @@
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
       <name val="Cambria"/>
     </font>
     <font>
@@ -880,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -896,13 +908,16 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -911,8 +926,8 @@
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -925,16 +940,16 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -943,11 +958,11 @@
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -957,145 +972,145 @@
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="3" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="8" fontId="9" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="8" fontId="10" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1457,16 +1472,16 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -1475,7 +1490,7 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
@@ -1487,10 +1502,10 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1"/>
@@ -2482,11 +2497,13 @@
     <hyperlink r:id="rId2" ref="B8"/>
     <hyperlink r:id="rId3" ref="B9"/>
     <hyperlink r:id="rId4" ref="B10"/>
+    <hyperlink r:id="rId5" ref="B12"/>
+    <hyperlink r:id="rId6" ref="B13"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2507,405 +2524,405 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>134</v>
       </c>
+      <c r="F1" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="A3" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="39">
+      <c r="A5" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="40">
         <f>SUM(D8:D13)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="40">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="A7" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="43" t="s">
-        <v>139</v>
+      <c r="A8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="44" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="44">
+      <c r="A9" s="45">
         <v>1.0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="39">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="40">
         <f>SUM(D16:D21)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="40">
         <f>$D$5</f>
         <v>0</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="40">
         <f>SUM(F16:F21)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="40">
         <f>$D$5</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="31">
+      <c r="A10" s="32">
         <f t="shared" ref="A10:A11" si="1">A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="45">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="46">
         <f>SUM(D22:D27)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="46">
         <f t="shared" ref="E10:E12" si="2">E9-D9</f>
         <v>0</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="46">
         <f>SUM(F22:F27)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="46">
         <f t="shared" ref="G10:G12" si="3">G9-F9</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="44">
+      <c r="A11" s="45">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="39">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="40">
         <f>SUM(D28:D33)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="40">
         <f>SUM(F28:F33)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="45">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="45">
+      <c r="F12" s="34"/>
+      <c r="G12" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
+      <c r="A14" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="49">
+      <c r="A16" s="50">
         <f>A9</f>
         <v>1</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="32"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="18"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="32"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="18"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="49">
+      <c r="A22" s="50">
         <f>A10</f>
         <v>2</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="32"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="18"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="32"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="18"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="49">
+      <c r="A28" s="50">
         <f>A11</f>
         <v>3</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="31"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="44"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="44"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
     </row>
     <row r="35" ht="12.75" customHeight="1"/>
     <row r="36" ht="12.75" customHeight="1"/>
@@ -3898,17 +3915,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="A1" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>144</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -4936,10 +4953,10 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -5968,595 +5985,595 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>59</v>
+      <c r="A1" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>1.0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="54" t="s">
+      <c r="B2" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="55" t="s">
         <v>153</v>
       </c>
+      <c r="D2" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>2.0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="E7" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="54" t="s">
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="8">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="54" t="s">
+      <c r="E23" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="A24" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="A25" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="54" t="s">
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="A26" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="7">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="7">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="7">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="7">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="7">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="7">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="7">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="7">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="7">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="7">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="7">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="7">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="D24" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="7">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="7">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>207</v>
+      <c r="E26" s="8" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <v>26.0</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C27" s="54" t="s">
+      <c r="B27" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="7">
+      <c r="A28" s="8">
         <v>27.0</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C28" s="54" t="s">
+      <c r="B28" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75" customHeight="1">
+      <c r="A29" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="A30" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="A32" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="A33" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="7">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C29" s="54" t="s">
+      <c r="D33" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="A34" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="7">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C30" s="54" t="s">
+      <c r="D34" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="A35" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="7">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="7">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="7">
-        <v>32.0</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C33" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="7">
-        <v>33.0</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="7">
-        <v>34.0</v>
-      </c>
-      <c r="B35" s="7" t="s">
+      <c r="D35" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="C35" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1"/>
@@ -7548,308 +7565,308 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="55" t="str">
+      <c r="A1" s="56" t="str">
         <f>'Project Team'!A1</f>
         <v>Last Name</v>
       </c>
-      <c r="B1" s="55" t="str">
+      <c r="B1" s="56" t="str">
         <f>'Project Team'!B1</f>
         <v>First Name</v>
       </c>
-      <c r="C1" s="56" t="s">
-        <v>224</v>
-      </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="C1" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="61" t="str">
+      <c r="A2" s="62" t="str">
         <f>'Project Team'!A2</f>
         <v>Kunow</v>
       </c>
-      <c r="B2" s="62" t="str">
+      <c r="B2" s="63" t="str">
         <f>'Project Team'!B2</f>
         <v>Johannes</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="str">
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="str">
         <f>AVERAGE(C2:C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F2" s="66" t="str">
+      <c r="F2" s="67" t="str">
         <f>IF(STDEV(C2:C7) &gt; 0,"NOK", "OK")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="61" t="str">
+      <c r="A3" s="62" t="str">
         <f>'Project Team'!A3</f>
         <v>Meusling</v>
       </c>
-      <c r="B3" s="62" t="str">
+      <c r="B3" s="63" t="str">
         <f>'Project Team'!B3</f>
         <v>Patrick</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="61" t="str">
+      <c r="A4" s="62" t="str">
         <f>'Project Team'!A4</f>
         <v>Dekanozishvili</v>
       </c>
-      <c r="B4" s="62" t="str">
+      <c r="B4" s="63" t="str">
         <f>'Project Team'!B4</f>
         <v>Luka</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="61" t="str">
+      <c r="A5" s="62" t="str">
         <f>'Project Team'!A5</f>
         <v>Roy</v>
       </c>
-      <c r="B5" s="62" t="str">
+      <c r="B5" s="63" t="str">
         <f>'Project Team'!B5</f>
         <v>Paul</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="61" t="str">
+      <c r="A6" s="62" t="str">
         <f>'Project Team'!A6</f>
         <v>Lobbes</v>
       </c>
-      <c r="B6" s="62" t="str">
+      <c r="B6" s="63" t="str">
         <f>'Project Team'!B6</f>
         <v>Sven</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73">
+      <c r="C6" s="69"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74">
         <v>0.0</v>
       </c>
-      <c r="F6" s="74" t="s">
-        <v>225</v>
-      </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
+      <c r="F6" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="61" t="str">
+      <c r="A7" s="62" t="str">
         <f>'Project Team'!A7</f>
         <v>Rubini</v>
       </c>
-      <c r="B7" s="62" t="str">
+      <c r="B7" s="63" t="str">
         <f>'Project Team'!B7</f>
         <v>Tommaso</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="73">
+      <c r="C7" s="69"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="74">
         <v>1.0</v>
       </c>
-      <c r="F7" s="74" t="s">
-        <v>226</v>
-      </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
+      <c r="F7" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="61" t="str">
+      <c r="A8" s="62" t="str">
         <f>'Project Team'!A8</f>
         <v>Novak</v>
       </c>
-      <c r="B8" s="62" t="str">
+      <c r="B8" s="63" t="str">
         <f>'Project Team'!B8</f>
         <v>Jannik</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73">
+      <c r="C8" s="69"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74">
         <v>2.0</v>
       </c>
-      <c r="F8" s="74" t="s">
-        <v>227</v>
-      </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="F8" s="75" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="61" t="str">
+      <c r="A9" s="62" t="str">
         <f>'Project Team'!A9</f>
         <v>Prosser</v>
       </c>
-      <c r="B9" s="62" t="str">
+      <c r="B9" s="63" t="str">
         <f>'Project Team'!B9</f>
         <v>Clemens</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="73">
+      <c r="C9" s="69"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="74">
         <v>3.0</v>
       </c>
-      <c r="F9" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
+      <c r="F9" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="61" t="str">
+      <c r="A10" s="62" t="str">
         <f>'Project Team'!A10</f>
         <v>Damm</v>
       </c>
-      <c r="B10" s="62" t="str">
+      <c r="B10" s="63" t="str">
         <f>'Project Team'!B10</f>
         <v>Sönke Fridtjof</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73">
+      <c r="C10" s="64"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74">
         <v>5.0</v>
       </c>
-      <c r="F10" s="74" t="s">
-        <v>229</v>
-      </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
+      <c r="F10" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="73">
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="74">
         <v>8.0</v>
       </c>
-      <c r="F11" s="74" t="s">
-        <v>230</v>
-      </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
+      <c r="F11" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73">
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74">
         <v>13.0</v>
       </c>
-      <c r="F12" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
+      <c r="F12" s="75" t="s">
+        <v>233</v>
+      </c>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
+      <c r="A14" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="77" t="s">
-        <v>233</v>
-      </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
+      <c r="A16" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="76" t="s">
-        <v>234</v>
-      </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
+      <c r="A17" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="77" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
+      <c r="A18" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="76"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
     </row>
     <row r="21" ht="12.75" customHeight="1"/>
     <row r="22" ht="12.75" customHeight="1"/>
@@ -8859,143 +8876,143 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="C3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
+      <c r="C4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="C5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>41</v>
       </c>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="C7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="C8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>53</v>
       </c>
+      <c r="C9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>57</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1"/>
@@ -10014,587 +10031,587 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="11"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>67</v>
       </c>
+      <c r="H2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="13">
+      <c r="A3" s="14">
         <v>1.0</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="15">
         <v>45763.0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="F3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="13">
+      <c r="A4" s="14">
         <v>2.0</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="16">
         <f t="shared" ref="B4:B11" si="1">B3+7</f>
         <v>45770</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="13">
+      <c r="A5" s="14">
         <v>3.0</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <f t="shared" si="1"/>
         <v>45777</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="C5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="13">
+      <c r="A6" s="14">
         <v>4.0</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <f t="shared" si="1"/>
         <v>45784</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="G6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <v>5.0</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="16">
         <f t="shared" si="1"/>
         <v>45791</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="F7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="13">
+      <c r="A8" s="14">
         <v>6.0</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="16">
         <f t="shared" si="1"/>
         <v>45798</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="F8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="13">
+      <c r="A9" s="14">
         <v>7.0</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="16">
         <f t="shared" si="1"/>
         <v>45805</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="C9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="G9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="13">
+      <c r="A10" s="14">
         <v>8.0</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="16">
         <f t="shared" si="1"/>
         <v>45812</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="F10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="13">
+      <c r="A11" s="14">
         <v>9.0</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="16">
         <f t="shared" si="1"/>
         <v>45819</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="C11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="G11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="13">
+      <c r="A12" s="14">
         <v>10.0</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="15">
         <v>45826.0</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="F12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="13">
+      <c r="A13" s="14">
         <v>11.0</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="16">
         <f t="shared" ref="B13:B17" si="2">B12+7</f>
         <v>45833</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="C13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="F13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="13">
+      <c r="A14" s="14">
         <v>12.0</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="16">
         <f t="shared" si="2"/>
         <v>45840</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="C14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="13">
+      <c r="A15" s="14">
         <v>13.0</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="16">
         <f t="shared" si="2"/>
         <v>45847</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="C15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="F15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="13">
+      <c r="A16" s="14">
         <v>14.0</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="16">
         <f t="shared" si="2"/>
         <v>45854</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="13">
+      <c r="A17" s="14">
         <v>15.0</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="16">
         <f t="shared" si="2"/>
         <v>45861</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="C17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="F17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="A19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" ht="12.75" customHeight="1"/>
     <row r="26" ht="12.75" customHeight="1"/>
@@ -11600,208 +11617,208 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>85</v>
+      <c r="A1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19" t="s">
-        <v>86</v>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>88</v>
+      <c r="A3" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
-        <v>89</v>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>91</v>
+      <c r="A5" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19" t="s">
-        <v>92</v>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>94</v>
+      <c r="A7" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19" t="s">
-        <v>95</v>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>97</v>
+      <c r="A9" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19" t="s">
-        <v>98</v>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>100</v>
+      <c r="A11" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19" t="s">
-        <v>101</v>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>103</v>
+      <c r="A13" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19" t="s">
-        <v>104</v>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>106</v>
+      <c r="A15" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19" t="s">
-        <v>107</v>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>109</v>
+      <c r="A17" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19" t="s">
-        <v>110</v>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="16"/>
+      <c r="A19" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="17"/>
     </row>
     <row r="20" ht="12.75" customHeight="1"/>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>112</v>
+        <v>67</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>80</v>
+        <v>115</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>77</v>
+        <v>115</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>74</v>
+        <v>116</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>76</v>
+        <v>116</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>73</v>
+        <v>116</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>69</v>
+        <v>116</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>72</v>
+        <v>116</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>78</v>
+        <v>116</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1"/>
@@ -12799,92 +12816,92 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>116</v>
+      <c r="A1" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>118</v>
+      <c r="A3" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
     </row>
     <row r="21" ht="12.75" customHeight="1"/>
     <row r="22" ht="12.75" customHeight="1"/>
@@ -13896,10 +13913,10 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -14926,122 +14943,122 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>121</v>
+      <c r="A1" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="26">
+      <c r="A2" s="27">
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="26">
+      <c r="A3" s="27">
         <f t="shared" ref="A3:A16" si="1">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="26">
+      <c r="A4" s="27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="26">
+      <c r="A6" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="26">
+      <c r="A7" s="27">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="26">
+      <c r="A8" s="27">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="26">
+      <c r="A9" s="27">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="26">
+      <c r="A10" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="26">
+      <c r="A11" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="26">
+      <c r="A12" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="3"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="26">
+      <c r="A13" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="3"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="26">
+      <c r="A14" s="27">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="26">
+      <c r="A15" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="26">
+      <c r="A16" s="27">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -16056,124 +16073,124 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>121</v>
+      <c r="A1" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="26">
+      <c r="A2" s="27">
         <v>1.0</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="26">
+      <c r="A3" s="27">
         <f t="shared" ref="A3:A16" si="1">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="26">
+      <c r="A4" s="27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="26">
+      <c r="A6" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="26">
+      <c r="A7" s="27">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="26">
+      <c r="A8" s="27">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="26">
+      <c r="A9" s="27">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="26">
+      <c r="A10" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="26">
+      <c r="A11" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="26">
+      <c r="A12" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="3"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="26">
+      <c r="A13" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="3"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="26">
+      <c r="A14" s="27">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="26">
+      <c r="A15" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="26">
+      <c r="A16" s="27">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="26"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27" t="s">
-        <v>127</v>
+      <c r="A18" s="27"/>
+      <c r="B18" s="28" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -17183,414 +17200,414 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>134</v>
       </c>
+      <c r="F1" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="A3" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="39">
+      <c r="A5" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="40">
         <f>SUM(D8:D13)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="40">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="A7" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="43" t="s">
-        <v>139</v>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="44" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="44">
+      <c r="A9" s="45">
         <v>1.0</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="39">
+      <c r="B9" s="38"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="40">
         <f>SUM(D16:D21)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="40">
         <f>$D$5</f>
         <v>0</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="40">
         <f>SUM(F16:F21)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="40">
         <f>$D$5</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="31">
+      <c r="A10" s="32">
         <f t="shared" ref="A10:A11" si="1">A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="45">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="46">
         <f>SUM(D22:D27)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="46">
         <f t="shared" ref="E10:E12" si="2">E9-D9</f>
         <v>0</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="46">
         <f>SUM(F22:F27)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="46">
         <f t="shared" ref="G10:G12" si="3">G9-F9</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="44">
+      <c r="A11" s="45">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="39">
+      <c r="B11" s="38"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="40">
         <f>SUM(D28:D33)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="40">
         <f>SUM(F28:F33)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="45">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="45">
+      <c r="F12" s="34"/>
+      <c r="G12" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
+      <c r="A14" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="49">
+      <c r="A16" s="50">
         <f t="shared" ref="A16:B16" si="4">A9</f>
         <v>1</v>
       </c>
-      <c r="B16" s="50" t="str">
+      <c r="B16" s="51" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="32"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="18"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="32"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="18"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="49">
+      <c r="A22" s="50">
         <f t="shared" ref="A22:B22" si="5">A10</f>
         <v>2</v>
       </c>
-      <c r="B22" s="50" t="str">
+      <c r="B22" s="51" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="32"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="18"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="32"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="18"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="49">
+      <c r="A28" s="50">
         <f t="shared" ref="A28:B28" si="6">A11</f>
         <v>3</v>
       </c>
-      <c r="B28" s="50" t="str">
+      <c r="B28" s="51" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="44"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="44"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
     </row>
     <row r="35" ht="12.75" customHeight="1"/>
     <row r="36" ht="12.75" customHeight="1"/>
